--- a/Chernetsov_Geographical_pattern/R_calc_Chernetsov_Geographic_pattern/Data/Species_polygon_revision.xlsx
+++ b/Chernetsov_Geographical_pattern/R_calc_Chernetsov_Geographic_pattern/Data/Species_polygon_revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="22188" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>Phylloscopus trochilus</t>
   </si>
   <si>
-    <t>Phylloscopus tristis</t>
+    <t>Phylloscopus tristis</t>
   </si>
 </sst>
 </file>
@@ -1236,12 +1236,13 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
